--- a/Competition Task Test Cases.xlsx
+++ b/Competition Task Test Cases.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c6460faf6f83a1b/Documents/Mars Competition Task-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{CFAB289A-E1C8-4CAF-8D41-D60C4CDD388A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA4955B-9661-4599-B88C-B277E192E1FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B56AE94-DB10-4BB8-9434-EF670A7D8EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-2655" yWindow="-18810" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="1" xr2:uid="{201C6B7D-C937-474E-A90B-25237720A2D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{201C6B7D-C937-474E-A90B-25237720A2D9}"/>
   </bookViews>
   <sheets>
     <sheet name="MarsTask2 Test Conditions" sheetId="1" r:id="rId1"/>
     <sheet name="MarsTask2 Test Case" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>Test Conditions</t>
   </si>
@@ -40,36 +51,39 @@
     <t xml:space="preserve">Check if the user is able to "Login" to Mars account </t>
   </si>
   <si>
+    <t>Check if the user is able to "Launch" to Home Page after loggin in</t>
+  </si>
+  <si>
+    <t>Validate "Share Skills" on Mars Home Page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Click" on "Share Skills" button</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Cancel" on share skills page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Add" a Skill on share skills page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Edit" the existing skill on "Manage Listings" page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Delete" the skill on "Manage Listings" page</t>
+  </si>
+  <si>
+    <t>Validate "Manage Listings" on Mars Home Page</t>
+  </si>
+  <si>
     <t>Check if the user is able to "Click" on "Manage Listings" button</t>
   </si>
   <si>
-    <t>Validate "Share Skills" on Mars Home Page</t>
-  </si>
-  <si>
-    <t>Validate "Manage Listings" on Mars Home Page</t>
-  </si>
-  <si>
-    <t>Check if the user is able to "Click" on "Share Skills" button</t>
-  </si>
-  <si>
-    <t>Check if the user is able to "Add" a Skill on share skills page</t>
-  </si>
-  <si>
-    <t>Check if the user is able to "Edit" the existing skill on "Manage Listings" page</t>
-  </si>
-  <si>
-    <t>Check if the user is able to "Delete" the skill on "Manage Listings" page</t>
-  </si>
-  <si>
     <t>Check if the user is able to "Edit" the exisiting listing on manage listings page</t>
   </si>
   <si>
     <t>Check if the user is able to "Delete" the lisitng on manage lisitngs page</t>
   </si>
   <si>
-    <t>Check if the user is able to "Cancel" on share skills page</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -79,17 +93,155 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Check if the user is able to "Launch" to Home Page after loggin in</t>
-  </si>
-  <si>
-    <t>Step 1:  Launch the URL "</t>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Step 1:  Launch the URL "localhost:5000"</t>
+  </si>
+  <si>
+    <t>User should able to Navigate to Sign In button</t>
+  </si>
+  <si>
+    <t>Step 2: Sign In with valid credentials Username:jessica@hotmail.com Password: 123123</t>
+  </si>
+  <si>
+    <t>User should be able to login to the Mars website</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Launch" the Home Page after loggin in</t>
+  </si>
+  <si>
+    <t>Step 3: Launch the Home Page</t>
+  </si>
+  <si>
+    <t>User should be able to launch straight to the Home Page after loggin in</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Click" on "Share Skill" button</t>
+  </si>
+  <si>
+    <t>Step 3: Click on Share Skill button</t>
+  </si>
+  <si>
+    <t>User should be able to Navigate to Share Skill button and Click on it</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Cancel" on share skill page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 4: Click on Cancel button </t>
+  </si>
+  <si>
+    <t>User should be able to click on Cancel button on the Share Skill page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Add" a Skill on share skill page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 4: Enter the "Title" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to enter Title </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 5: Enter the "Description" </t>
+  </si>
+  <si>
+    <t>User should be able to enter Description</t>
+  </si>
+  <si>
+    <t>Step 6: Select the "Category"</t>
+  </si>
+  <si>
+    <t>User should be able to select the Category</t>
+  </si>
+  <si>
+    <t>Step 7: Select the "Sub Category"</t>
+  </si>
+  <si>
+    <t>User should be able to select the Sub Category</t>
+  </si>
+  <si>
+    <t>Step 8: Enter the "Tags"</t>
+  </si>
+  <si>
+    <t>User User should be able to enter the Tags</t>
+  </si>
+  <si>
+    <t>Step 9: Select the "Service Type"</t>
+  </si>
+  <si>
+    <t>User should be able to select the Service Type</t>
+  </si>
+  <si>
+    <t>Step 10: Select the "Location Type"</t>
+  </si>
+  <si>
+    <t>User should be able to select the Location Type</t>
+  </si>
+  <si>
+    <t>Step 11: Select the "Start date"</t>
+  </si>
+  <si>
+    <t>User should be able to select the Start date</t>
+  </si>
+  <si>
+    <t>Step 12: Select the "End date"</t>
+  </si>
+  <si>
+    <t>User should be able to select the End date</t>
+  </si>
+  <si>
+    <t>Step 13: Click on the day check box</t>
+  </si>
+  <si>
+    <t>User should be able to click on the day check box</t>
+  </si>
+  <si>
+    <t>Step 14: Select day "Start time"</t>
+  </si>
+  <si>
+    <t>User should be able to select day Start time</t>
+  </si>
+  <si>
+    <t>Step 15: Select day "End time"</t>
+  </si>
+  <si>
+    <t>User should be able to select day End time</t>
+  </si>
+  <si>
+    <t>Step 16: Select the "Skill Trade"</t>
+  </si>
+  <si>
+    <t>User should be able to select the Skill Trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 17: Enter the "Skill-Exchange" </t>
+  </si>
+  <si>
+    <t>User should be able to enter the Skill-Exchange</t>
+  </si>
+  <si>
+    <t>Step 18: Upload the "Work Samples" files or images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to upload the Work Samples of files </t>
+  </si>
+  <si>
+    <t>User unable to save files due to an error "There is an error when updating Work Samples - undefined"</t>
+  </si>
+  <si>
+    <t>Step 19: Select the "Active"</t>
+  </si>
+  <si>
+    <t>User should be able to select the Active</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,13 +249,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,8 +284,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,24 +604,24 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="52.109375" customWidth="1"/>
-    <col min="2" max="2" width="68.6640625" customWidth="1"/>
+    <col min="1" max="1" width="52.140625" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -462,60 +629,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -525,39 +692,302 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A5AC04-B81D-49A5-B314-DBC99861BBA8}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="53.21875" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.77734375" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Competition Task Test Cases.xlsx
+++ b/Competition Task Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c6460faf6f83a1b/Documents/Mars Competition Task-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saara\OneDrive\Documents\Mars Competition Task-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B56AE94-DB10-4BB8-9434-EF670A7D8EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC383AB4-3784-482E-9B18-A02145A19F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{201C6B7D-C937-474E-A90B-25237720A2D9}"/>
+    <workbookView xWindow="-5565" yWindow="-21720" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{201C6B7D-C937-474E-A90B-25237720A2D9}"/>
   </bookViews>
   <sheets>
     <sheet name="MarsTask2 Test Conditions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>Test Conditions</t>
   </si>
@@ -235,13 +235,16 @@
   </si>
   <si>
     <t>User should be able to select the Active</t>
+  </si>
+  <si>
+    <t>Edit PopUp message doesn't stay on for too long because it switches to the Manage Listings page right after saving</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,13 +610,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.140625" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52.109375" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -629,12 +632,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -642,27 +645,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -670,17 +673,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -692,21 +695,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A5AC04-B81D-49A5-B314-DBC99861BBA8}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" customWidth="1"/>
-    <col min="3" max="3" width="59.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="54.44140625" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -720,7 +723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -731,7 +734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -739,7 +742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -750,7 +753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -758,7 +761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -766,7 +769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -777,7 +780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -785,7 +788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -793,7 +796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -804,7 +807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -812,7 +815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -820,7 +823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -828,7 +831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -839,7 +842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -847,7 +850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -855,7 +858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -863,7 +866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>35</v>
       </c>
@@ -871,7 +874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>37</v>
       </c>
@@ -879,7 +882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -887,7 +890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -895,7 +898,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>43</v>
       </c>
@@ -903,7 +906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>45</v>
       </c>
@@ -911,7 +914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>47</v>
       </c>
@@ -919,7 +922,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>49</v>
       </c>
@@ -927,7 +930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>51</v>
       </c>
@@ -935,7 +938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>53</v>
       </c>
@@ -943,7 +946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -951,7 +954,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>57</v>
       </c>
@@ -959,7 +962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>59</v>
       </c>
@@ -967,7 +970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>61</v>
       </c>
@@ -978,12 +981,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>64</v>
       </c>
       <c r="C36" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
